--- a/AAII_Financials/Quarterly/WTKWY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTKWY_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2954200</v>
+        <v>2956600</v>
       </c>
       <c r="E8" s="3">
-        <v>3092900</v>
+        <v>3095500</v>
       </c>
       <c r="F8" s="3">
-        <v>2818700</v>
+        <v>2821000</v>
       </c>
       <c r="G8" s="3">
-        <v>2700500</v>
+        <v>2702700</v>
       </c>
       <c r="H8" s="3">
-        <v>2471700</v>
+        <v>2473800</v>
       </c>
       <c r="I8" s="3">
-        <v>2503200</v>
+        <v>2505300</v>
       </c>
       <c r="J8" s="3">
-        <v>2486900</v>
+        <v>2489000</v>
       </c>
       <c r="K8" s="3">
         <v>2610500</v>
@@ -749,25 +749,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>842300</v>
+        <v>843000</v>
       </c>
       <c r="E9" s="3">
-        <v>910600</v>
+        <v>911400</v>
       </c>
       <c r="F9" s="3">
-        <v>800100</v>
+        <v>800700</v>
       </c>
       <c r="G9" s="3">
-        <v>789200</v>
+        <v>789900</v>
       </c>
       <c r="H9" s="3">
-        <v>700300</v>
+        <v>700900</v>
       </c>
       <c r="I9" s="3">
-        <v>741500</v>
+        <v>742100</v>
       </c>
       <c r="J9" s="3">
-        <v>731800</v>
+        <v>732400</v>
       </c>
       <c r="K9" s="3">
         <v>773000</v>
@@ -778,25 +778,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2111800</v>
+        <v>2113600</v>
       </c>
       <c r="E10" s="3">
-        <v>2182300</v>
+        <v>2184100</v>
       </c>
       <c r="F10" s="3">
-        <v>2018600</v>
+        <v>2020300</v>
       </c>
       <c r="G10" s="3">
-        <v>1911300</v>
+        <v>1912900</v>
       </c>
       <c r="H10" s="3">
-        <v>1771400</v>
+        <v>1772900</v>
       </c>
       <c r="I10" s="3">
-        <v>1761700</v>
+        <v>1763100</v>
       </c>
       <c r="J10" s="3">
-        <v>1755200</v>
+        <v>1756600</v>
       </c>
       <c r="K10" s="3">
         <v>1837500</v>
@@ -946,25 +946,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2269000</v>
+        <v>2270900</v>
       </c>
       <c r="E17" s="3">
-        <v>2341700</v>
+        <v>2343600</v>
       </c>
       <c r="F17" s="3">
-        <v>2124800</v>
+        <v>2126600</v>
       </c>
       <c r="G17" s="3">
-        <v>2166000</v>
+        <v>2167800</v>
       </c>
       <c r="H17" s="3">
-        <v>1909100</v>
+        <v>1910700</v>
       </c>
       <c r="I17" s="3">
-        <v>1991500</v>
+        <v>1993100</v>
       </c>
       <c r="J17" s="3">
-        <v>1944900</v>
+        <v>1946500</v>
       </c>
       <c r="K17" s="3">
         <v>2084700</v>
@@ -975,25 +975,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>685200</v>
+        <v>685700</v>
       </c>
       <c r="E18" s="3">
-        <v>751300</v>
+        <v>751900</v>
       </c>
       <c r="F18" s="3">
-        <v>693800</v>
+        <v>694400</v>
       </c>
       <c r="G18" s="3">
-        <v>534500</v>
+        <v>534900</v>
       </c>
       <c r="H18" s="3">
-        <v>562600</v>
+        <v>563100</v>
       </c>
       <c r="I18" s="3">
-        <v>511700</v>
+        <v>512100</v>
       </c>
       <c r="J18" s="3">
-        <v>542100</v>
+        <v>542500</v>
       </c>
       <c r="K18" s="3">
         <v>525800</v>
@@ -1026,13 +1026,13 @@
         <v>-42300</v>
       </c>
       <c r="G20" s="3">
-        <v>-37900</v>
+        <v>-38000</v>
       </c>
       <c r="H20" s="3">
         <v>-42300</v>
       </c>
       <c r="I20" s="3">
-        <v>-17300</v>
+        <v>-17400</v>
       </c>
       <c r="J20" s="3">
         <v>-8700</v>
@@ -1046,25 +1046,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>917100</v>
+        <v>917900</v>
       </c>
       <c r="E21" s="3">
-        <v>996300</v>
+        <v>997100</v>
       </c>
       <c r="F21" s="3">
-        <v>902000</v>
+        <v>902700</v>
       </c>
       <c r="G21" s="3">
-        <v>795700</v>
+        <v>796400</v>
       </c>
       <c r="H21" s="3">
-        <v>733900</v>
+        <v>734500</v>
       </c>
       <c r="I21" s="3">
-        <v>741500</v>
+        <v>742100</v>
       </c>
       <c r="J21" s="3">
-        <v>765400</v>
+        <v>766000</v>
       </c>
       <c r="K21" s="3">
         <v>793600</v>
@@ -1104,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>673200</v>
+        <v>673800</v>
       </c>
       <c r="E23" s="3">
-        <v>736100</v>
+        <v>736700</v>
       </c>
       <c r="F23" s="3">
-        <v>647200</v>
+        <v>647700</v>
       </c>
       <c r="G23" s="3">
-        <v>491100</v>
+        <v>491500</v>
       </c>
       <c r="H23" s="3">
-        <v>516000</v>
+        <v>516500</v>
       </c>
       <c r="I23" s="3">
-        <v>488900</v>
+        <v>489300</v>
       </c>
       <c r="J23" s="3">
-        <v>526900</v>
+        <v>527300</v>
       </c>
       <c r="K23" s="3">
         <v>497600</v>
@@ -1133,25 +1133,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>153900</v>
+        <v>154100</v>
       </c>
       <c r="E24" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="F24" s="3">
-        <v>153900</v>
+        <v>154100</v>
       </c>
       <c r="G24" s="3">
-        <v>92100</v>
+        <v>92200</v>
       </c>
       <c r="H24" s="3">
-        <v>125800</v>
+        <v>125900</v>
       </c>
       <c r="I24" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="J24" s="3">
-        <v>121400</v>
+        <v>121500</v>
       </c>
       <c r="K24" s="3">
         <v>100800</v>
@@ -1191,25 +1191,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="E26" s="3">
-        <v>620100</v>
+        <v>620600</v>
       </c>
       <c r="F26" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G26" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="H26" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="I26" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="J26" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K26" s="3">
         <v>396800</v>
@@ -1220,25 +1220,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="E27" s="3">
-        <v>620100</v>
+        <v>620600</v>
       </c>
       <c r="F27" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G27" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="H27" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="I27" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="J27" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K27" s="3">
         <v>396800</v>
@@ -1374,13 +1374,13 @@
         <v>42300</v>
       </c>
       <c r="G32" s="3">
-        <v>37900</v>
+        <v>38000</v>
       </c>
       <c r="H32" s="3">
         <v>42300</v>
       </c>
       <c r="I32" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J32" s="3">
         <v>8700</v>
@@ -1394,25 +1394,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="E33" s="3">
-        <v>620100</v>
+        <v>620600</v>
       </c>
       <c r="F33" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G33" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="H33" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="I33" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="J33" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K33" s="3">
         <v>396800</v>
@@ -1452,25 +1452,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="E35" s="3">
-        <v>620100</v>
+        <v>620600</v>
       </c>
       <c r="F35" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G35" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="H35" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="I35" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="J35" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K35" s="3">
         <v>396800</v>
@@ -1541,25 +1541,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1208800</v>
+        <v>1209800</v>
       </c>
       <c r="E41" s="3">
-        <v>1459200</v>
+        <v>1460400</v>
       </c>
       <c r="F41" s="3">
-        <v>1190300</v>
+        <v>1191300</v>
       </c>
       <c r="G41" s="3">
-        <v>1085200</v>
+        <v>1086100</v>
       </c>
       <c r="H41" s="3">
-        <v>1031000</v>
+        <v>1031800</v>
       </c>
       <c r="I41" s="3">
-        <v>783800</v>
+        <v>784500</v>
       </c>
       <c r="J41" s="3">
-        <v>1060200</v>
+        <v>1061100</v>
       </c>
       <c r="K41" s="3">
         <v>974600</v>
@@ -1599,25 +1599,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1585000</v>
+        <v>1586300</v>
       </c>
       <c r="E43" s="3">
-        <v>1682500</v>
+        <v>1683900</v>
       </c>
       <c r="F43" s="3">
-        <v>1651100</v>
+        <v>1652500</v>
       </c>
       <c r="G43" s="3">
-        <v>1703100</v>
+        <v>1704500</v>
       </c>
       <c r="H43" s="3">
-        <v>1438600</v>
+        <v>1439800</v>
       </c>
       <c r="I43" s="3">
-        <v>1509100</v>
+        <v>1510300</v>
       </c>
       <c r="J43" s="3">
-        <v>1735600</v>
+        <v>1737100</v>
       </c>
       <c r="K43" s="3">
         <v>1601200</v>
@@ -1628,13 +1628,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="E44" s="3">
-        <v>85600</v>
+        <v>85700</v>
       </c>
       <c r="F44" s="3">
-        <v>79100</v>
+        <v>79200</v>
       </c>
       <c r="G44" s="3">
         <v>70500</v>
@@ -1643,10 +1643,10 @@
         <v>77000</v>
       </c>
       <c r="I44" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="J44" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="K44" s="3">
         <v>79100</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="G45" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2879400</v>
+        <v>2881800</v>
       </c>
       <c r="E46" s="3">
-        <v>3227400</v>
+        <v>3230000</v>
       </c>
       <c r="F46" s="3">
-        <v>3033300</v>
+        <v>3035800</v>
       </c>
       <c r="G46" s="3">
-        <v>2968300</v>
+        <v>2970700</v>
       </c>
       <c r="H46" s="3">
-        <v>2546600</v>
+        <v>2548700</v>
       </c>
       <c r="I46" s="3">
-        <v>2366600</v>
+        <v>2368600</v>
       </c>
       <c r="J46" s="3">
-        <v>2640900</v>
+        <v>2643100</v>
       </c>
       <c r="K46" s="3">
         <v>2684200</v>
@@ -1718,10 +1718,10 @@
         <v>57500</v>
       </c>
       <c r="E47" s="3">
-        <v>72600</v>
+        <v>72700</v>
       </c>
       <c r="F47" s="3">
-        <v>68300</v>
+        <v>68400</v>
       </c>
       <c r="G47" s="3">
         <v>56400</v>
@@ -1730,10 +1730,10 @@
         <v>56400</v>
       </c>
       <c r="I47" s="3">
-        <v>58500</v>
+        <v>58600</v>
       </c>
       <c r="J47" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="K47" s="3">
         <v>55300</v>
@@ -1744,25 +1744,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>364300</v>
+        <v>364600</v>
       </c>
       <c r="E48" s="3">
-        <v>392400</v>
+        <v>392800</v>
       </c>
       <c r="F48" s="3">
-        <v>421700</v>
+        <v>422100</v>
       </c>
       <c r="G48" s="3">
-        <v>407600</v>
+        <v>408000</v>
       </c>
       <c r="H48" s="3">
-        <v>436900</v>
+        <v>437300</v>
       </c>
       <c r="I48" s="3">
-        <v>436900</v>
+        <v>437300</v>
       </c>
       <c r="J48" s="3">
-        <v>477000</v>
+        <v>477400</v>
       </c>
       <c r="K48" s="3">
         <v>472700</v>
@@ -1773,25 +1773,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6486200</v>
+        <v>6491600</v>
       </c>
       <c r="E49" s="3">
-        <v>6550100</v>
+        <v>6555600</v>
       </c>
       <c r="F49" s="3">
-        <v>6628200</v>
+        <v>6633700</v>
       </c>
       <c r="G49" s="3">
-        <v>6287800</v>
+        <v>6293000</v>
       </c>
       <c r="H49" s="3">
-        <v>6271500</v>
+        <v>6276700</v>
       </c>
       <c r="I49" s="3">
-        <v>12224300</v>
+        <v>12234500</v>
       </c>
       <c r="J49" s="3">
-        <v>12259000</v>
+        <v>12269200</v>
       </c>
       <c r="K49" s="3">
         <v>6172900</v>
@@ -1863,13 +1863,13 @@
         <v>64000</v>
       </c>
       <c r="E52" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="F52" s="3">
         <v>71600</v>
       </c>
       <c r="G52" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="H52" s="3">
         <v>98700</v>
@@ -1878,7 +1878,7 @@
         <v>78100</v>
       </c>
       <c r="J52" s="3">
-        <v>108400</v>
+        <v>108500</v>
       </c>
       <c r="K52" s="3">
         <v>127900</v>
@@ -1918,25 +1918,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9851200</v>
+        <v>9859400</v>
       </c>
       <c r="E54" s="3">
-        <v>10309800</v>
+        <v>10318400</v>
       </c>
       <c r="F54" s="3">
-        <v>10223100</v>
+        <v>10231600</v>
       </c>
       <c r="G54" s="3">
-        <v>9787300</v>
+        <v>9795400</v>
       </c>
       <c r="H54" s="3">
-        <v>9410000</v>
+        <v>9417800</v>
       </c>
       <c r="I54" s="3">
-        <v>9052200</v>
+        <v>9059800</v>
       </c>
       <c r="J54" s="3">
-        <v>9420800</v>
+        <v>9428700</v>
       </c>
       <c r="K54" s="3">
         <v>9513000</v>
@@ -1973,25 +1973,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>978900</v>
+        <v>979800</v>
       </c>
       <c r="E57" s="3">
-        <v>1073300</v>
+        <v>1074200</v>
       </c>
       <c r="F57" s="3">
-        <v>881400</v>
+        <v>882100</v>
       </c>
       <c r="G57" s="3">
-        <v>1023400</v>
+        <v>1024200</v>
       </c>
       <c r="H57" s="3">
-        <v>794600</v>
+        <v>795300</v>
       </c>
       <c r="I57" s="3">
-        <v>887900</v>
+        <v>888600</v>
       </c>
       <c r="J57" s="3">
-        <v>773000</v>
+        <v>773600</v>
       </c>
       <c r="K57" s="3">
         <v>976800</v>
@@ -2002,25 +2002,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>549600</v>
+        <v>550100</v>
       </c>
       <c r="E58" s="3">
-        <v>851000</v>
+        <v>851700</v>
       </c>
       <c r="F58" s="3">
-        <v>1038600</v>
+        <v>1039400</v>
       </c>
       <c r="G58" s="3">
-        <v>86700</v>
+        <v>86800</v>
       </c>
       <c r="H58" s="3">
-        <v>314400</v>
+        <v>314700</v>
       </c>
       <c r="I58" s="3">
-        <v>1073300</v>
+        <v>1074200</v>
       </c>
       <c r="J58" s="3">
-        <v>2053300</v>
+        <v>2055000</v>
       </c>
       <c r="K58" s="3">
         <v>1078700</v>
@@ -2031,25 +2031,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2288500</v>
+        <v>2290400</v>
       </c>
       <c r="E59" s="3">
-        <v>2270100</v>
+        <v>2272000</v>
       </c>
       <c r="F59" s="3">
-        <v>2347100</v>
+        <v>2349000</v>
       </c>
       <c r="G59" s="3">
-        <v>2202900</v>
+        <v>2204700</v>
       </c>
       <c r="H59" s="3">
-        <v>2026200</v>
+        <v>2027900</v>
       </c>
       <c r="I59" s="3">
-        <v>1952500</v>
+        <v>1954100</v>
       </c>
       <c r="J59" s="3">
-        <v>1943800</v>
+        <v>1945400</v>
       </c>
       <c r="K59" s="3">
         <v>2073900</v>
@@ -2060,25 +2060,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3817100</v>
+        <v>3820300</v>
       </c>
       <c r="E60" s="3">
-        <v>4194400</v>
+        <v>4197900</v>
       </c>
       <c r="F60" s="3">
-        <v>4267000</v>
+        <v>4270600</v>
       </c>
       <c r="G60" s="3">
-        <v>3313000</v>
+        <v>3315800</v>
       </c>
       <c r="H60" s="3">
-        <v>3135200</v>
+        <v>3137800</v>
       </c>
       <c r="I60" s="3">
-        <v>3416000</v>
+        <v>3418800</v>
       </c>
       <c r="J60" s="3">
-        <v>3920100</v>
+        <v>3923400</v>
       </c>
       <c r="K60" s="3">
         <v>4129300</v>
@@ -2089,25 +2089,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3336900</v>
+        <v>3339600</v>
       </c>
       <c r="E61" s="3">
-        <v>3068000</v>
+        <v>3070600</v>
       </c>
       <c r="F61" s="3">
-        <v>2531400</v>
+        <v>2533500</v>
       </c>
       <c r="G61" s="3">
-        <v>3307600</v>
+        <v>3310300</v>
       </c>
       <c r="H61" s="3">
-        <v>3323900</v>
+        <v>3326600</v>
       </c>
       <c r="I61" s="3">
-        <v>2792600</v>
+        <v>2795000</v>
       </c>
       <c r="J61" s="3">
-        <v>2289600</v>
+        <v>2291500</v>
       </c>
       <c r="K61" s="3">
         <v>2288500</v>
@@ -2118,25 +2118,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>525800</v>
+        <v>526200</v>
       </c>
       <c r="E62" s="3">
-        <v>543100</v>
+        <v>543600</v>
       </c>
       <c r="F62" s="3">
-        <v>572400</v>
+        <v>572900</v>
       </c>
       <c r="G62" s="3">
-        <v>546400</v>
+        <v>546800</v>
       </c>
       <c r="H62" s="3">
-        <v>611400</v>
+        <v>611900</v>
       </c>
       <c r="I62" s="3">
-        <v>581100</v>
+        <v>581600</v>
       </c>
       <c r="J62" s="3">
-        <v>642900</v>
+        <v>643400</v>
       </c>
       <c r="K62" s="3">
         <v>514900</v>
@@ -2234,25 +2234,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7679800</v>
+        <v>7686100</v>
       </c>
       <c r="E66" s="3">
-        <v>7805500</v>
+        <v>7812000</v>
       </c>
       <c r="F66" s="3">
-        <v>7370800</v>
+        <v>7376900</v>
       </c>
       <c r="G66" s="3">
-        <v>7167000</v>
+        <v>7172900</v>
       </c>
       <c r="H66" s="3">
-        <v>7070500</v>
+        <v>7076400</v>
       </c>
       <c r="I66" s="3">
-        <v>6789700</v>
+        <v>6795400</v>
       </c>
       <c r="J66" s="3">
-        <v>6852600</v>
+        <v>6858300</v>
       </c>
       <c r="K66" s="3">
         <v>6932800</v>
@@ -2392,25 +2392,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2043500</v>
+        <v>2045200</v>
       </c>
       <c r="E72" s="3">
-        <v>3173200</v>
+        <v>3175800</v>
       </c>
       <c r="F72" s="3">
-        <v>2723300</v>
+        <v>2725500</v>
       </c>
       <c r="G72" s="3">
-        <v>2491300</v>
+        <v>2493300</v>
       </c>
       <c r="H72" s="3">
-        <v>2210500</v>
+        <v>2212300</v>
       </c>
       <c r="I72" s="3">
-        <v>2133500</v>
+        <v>2135300</v>
       </c>
       <c r="J72" s="3">
-        <v>2438100</v>
+        <v>2440200</v>
       </c>
       <c r="K72" s="3">
         <v>2450100</v>
@@ -2508,25 +2508,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2171500</v>
+        <v>2173300</v>
       </c>
       <c r="E76" s="3">
-        <v>2504300</v>
+        <v>2506400</v>
       </c>
       <c r="F76" s="3">
-        <v>2852300</v>
+        <v>2854600</v>
       </c>
       <c r="G76" s="3">
-        <v>2620300</v>
+        <v>2622400</v>
       </c>
       <c r="H76" s="3">
-        <v>2339500</v>
+        <v>2341400</v>
       </c>
       <c r="I76" s="3">
-        <v>2262500</v>
+        <v>2264400</v>
       </c>
       <c r="J76" s="3">
-        <v>2568200</v>
+        <v>2570400</v>
       </c>
       <c r="K76" s="3">
         <v>2580200</v>
@@ -2600,25 +2600,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>519300</v>
+        <v>519700</v>
       </c>
       <c r="E81" s="3">
-        <v>620100</v>
+        <v>620600</v>
       </c>
       <c r="F81" s="3">
-        <v>493300</v>
+        <v>493700</v>
       </c>
       <c r="G81" s="3">
-        <v>398900</v>
+        <v>399300</v>
       </c>
       <c r="H81" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="I81" s="3">
-        <v>376200</v>
+        <v>376500</v>
       </c>
       <c r="J81" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="K81" s="3">
         <v>396800</v>
@@ -2642,25 +2642,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>239600</v>
+        <v>239800</v>
       </c>
       <c r="E83" s="3">
-        <v>254800</v>
+        <v>255000</v>
       </c>
       <c r="F83" s="3">
-        <v>250400</v>
+        <v>250600</v>
       </c>
       <c r="G83" s="3">
-        <v>299200</v>
+        <v>299500</v>
       </c>
       <c r="H83" s="3">
-        <v>213600</v>
+        <v>213700</v>
       </c>
       <c r="I83" s="3">
-        <v>247200</v>
+        <v>247400</v>
       </c>
       <c r="J83" s="3">
-        <v>232000</v>
+        <v>232200</v>
       </c>
       <c r="K83" s="3">
         <v>289500</v>
@@ -2816,25 +2816,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>738300</v>
+        <v>738900</v>
       </c>
       <c r="E89" s="3">
-        <v>993000</v>
+        <v>993900</v>
       </c>
       <c r="F89" s="3">
-        <v>722000</v>
+        <v>722600</v>
       </c>
       <c r="G89" s="3">
-        <v>736100</v>
+        <v>736700</v>
       </c>
       <c r="H89" s="3">
-        <v>664600</v>
+        <v>665100</v>
       </c>
       <c r="I89" s="3">
-        <v>765400</v>
+        <v>766000</v>
       </c>
       <c r="J89" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="K89" s="3">
         <v>722000</v>
@@ -2945,25 +2945,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220100</v>
+        <v>-220300</v>
       </c>
       <c r="E94" s="3">
-        <v>-97600</v>
+        <v>-97700</v>
       </c>
       <c r="F94" s="3">
-        <v>-226600</v>
+        <v>-226800</v>
       </c>
       <c r="G94" s="3">
-        <v>-92100</v>
+        <v>-92200</v>
       </c>
       <c r="H94" s="3">
-        <v>-219000</v>
+        <v>-219200</v>
       </c>
       <c r="I94" s="3">
-        <v>-475900</v>
+        <v>-476300</v>
       </c>
       <c r="J94" s="3">
-        <v>-134400</v>
+        <v>-134500</v>
       </c>
       <c r="K94" s="3">
         <v>-140900</v>
@@ -2987,25 +2987,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-267800</v>
+        <v>-268000</v>
       </c>
       <c r="E96" s="3">
-        <v>-173500</v>
+        <v>-173600</v>
       </c>
       <c r="F96" s="3">
-        <v>-286200</v>
+        <v>-286400</v>
       </c>
       <c r="G96" s="3">
-        <v>-151800</v>
+        <v>-151900</v>
       </c>
       <c r="H96" s="3">
-        <v>-252600</v>
+        <v>-252800</v>
       </c>
       <c r="I96" s="3">
-        <v>-134400</v>
+        <v>-134500</v>
       </c>
       <c r="J96" s="3">
-        <v>-227700</v>
+        <v>-227900</v>
       </c>
       <c r="K96" s="3">
         <v>-114900</v>
@@ -3103,25 +3103,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-770800</v>
+        <v>-771400</v>
       </c>
       <c r="E100" s="3">
-        <v>-530100</v>
+        <v>-530600</v>
       </c>
       <c r="F100" s="3">
-        <v>-544200</v>
+        <v>-544700</v>
       </c>
       <c r="G100" s="3">
-        <v>-550700</v>
+        <v>-551200</v>
       </c>
       <c r="H100" s="3">
         <v>61800</v>
       </c>
       <c r="I100" s="3">
-        <v>-362100</v>
+        <v>-362400</v>
       </c>
       <c r="J100" s="3">
-        <v>-317600</v>
+        <v>-317900</v>
       </c>
       <c r="K100" s="3">
         <v>-382700</v>
@@ -3135,13 +3135,13 @@
         <v>-20600</v>
       </c>
       <c r="E101" s="3">
-        <v>-32500</v>
+        <v>-32600</v>
       </c>
       <c r="F101" s="3">
-        <v>80200</v>
+        <v>80300</v>
       </c>
       <c r="G101" s="3">
-        <v>53100</v>
+        <v>53200</v>
       </c>
       <c r="H101" s="3">
         <v>29300</v>
@@ -3161,25 +3161,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-273200</v>
+        <v>-273400</v>
       </c>
       <c r="E102" s="3">
-        <v>332800</v>
+        <v>333100</v>
       </c>
       <c r="F102" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="G102" s="3">
-        <v>146400</v>
+        <v>146500</v>
       </c>
       <c r="H102" s="3">
-        <v>536600</v>
+        <v>537100</v>
       </c>
       <c r="I102" s="3">
-        <v>-149600</v>
+        <v>-149700</v>
       </c>
       <c r="J102" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="K102" s="3">
         <v>211400</v>
